--- a/qrDecoder/idahotest2.xlsx
+++ b/qrDecoder/idahotest2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6d5fb062e9651f9/Documents/scoutingApp-yayimadeabranch/qrDecoder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6d5fb062e9651f9/Documents/scoutingApp-yayimadeabranch/frc_scouting_app/qrDecoder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_3EC5551C2572180B41CA593C47C973D463543552" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C72E057C-F0A6-4E6C-A093-7F805F402780}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="11_3EC5551C2572180B41CA593C47C973D463543552" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF86C956-EC1F-4849-930C-4D5BA8D75207}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="personal score ranking" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
@@ -511,9 +511,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,7 +581,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>44</v>
